--- a/outputs/MSN20251103038/MSN20251103038银行流水1_part3_audit_report.xlsx
+++ b/outputs/MSN20251103038/MSN20251103038银行流水1_part3_audit_report.xlsx
@@ -488,7 +488,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 09:41:57</t>
+          <t>生成时间: 2026-02-01 20:17:13</t>
         </is>
       </c>
     </row>
@@ -680,53 +680,54 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_CNT_ABONOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Depósitos / Abonos (+)'对应的总笔数（Total Movimientos Abonos）。
-执行结果：在提供的'Comportamiento'和'total_movimientos'数据中，均明确显示'total_movimientos_abonos: 23'。因此，数值1 = 23。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分的所有交易行。
-执行结果：明细部分共列出48笔交易。
-(Step 3) [关键过滤] 仅统计'Abonos'列有有效数值（非空且不为0）的行。如果某行只有'Cargo'列有值，必须忽略。
-执行结果：逐行检查48笔交易，筛选出'Abonos'列不为'无'（即有数值）的行。符合条件的交易如下（按原始顺序列出）：
-1. 页面:0 | Oper:07/AGO | Abono:920.0
-2. 页面:0 | Oper:08/AGO | Abono:200.0
-3. 页面:0 | Oper:10/AGO | Abono:337.8
-7. 页面:0 | Oper:13/AGO | Abono:1616.0
-8. 页面:0 | Oper:14/AGO | Abono:4344.85
-9. 页面:0 | Oper:14/AGO | Abono:300.0
-13. 页面:0 | Oper:15/AGO | Abono:320.0
-14. 页面:0 | Oper:15/AGO | Abono:300.0
-15. 页面:0 | Oper:16/AGO | Abono:813.0
-16. 页面:0 | Oper:16/AGO | Abono:400.0
-18. 页面:0 | Oper:16/AGO | Abono:880.0
-19. 页面:0 | Oper:16/AGO | Abono:320.0
-27. 页面:0 | Oper:29/AGO | Abono:4337.25
-28. 页面:0 | Oper:30/AGO | Abono:14000.0
-29. 页面:0 | Oper:30/AGO | Abono:1622.0
-30. 页面:0 | Oper:30/AGO | Abono:1155.0
-31. 页面:0 | Oper:30/AGO | Abono:4430.0
-32. 页面:0 | Oper:30/AGO | Abono:811.0
-35. 页面:0 | Oper:30/AGO | Abono:3021.0
-36. 页面:0 | Oper:31/AGO | Abono:520.0
-39. 页面:0 | Oper:01/SEP | Abono:1860.0
-43. 页面:0 | Oper:01/SEP | Abono:250.0
-46. 页面:0 | Oper:02/SEP | Abono:100.0
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数。
+- 数据来源：'Comportamiento' 部分明确列出 'Depósitos / Abonos (+): 23'。
+- 提取结果：数值1 (Total Movimientos Abonos) = 23。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。
+- 数据来源：已提供的结构化明细共 48 行。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。忽略只有 'Cargo' 列有值的行。
+- 执行过程：逐行检查明细数据中的 'ABONOS' 字段。
+- 符合条件的交易明细（共23笔，按原始顺序列出）：
+  1. ABONOS:920.0
+  2. ABONOS:200.0
+  3. ABONOS:337.8
+  7. ABONOS:1616.0
+  8. ABONOS:4344.85
+  9. ABONOS:300.0
+  13. ABONOS:320.0
+  14. ABONOS:300.0
+  15. ABONOS:813.0
+  16. ABONOS:400.0
+  18. ABONOS:880.0
+  19. ABONOS:320.0
+  27. ABONOS:4337.25
+  28. ABONOS:14000.0
+  29. ABONOS:1622.0
+  30. ABONOS:1155.0
+  31. ABONOS:4430.0
+  32. ABONOS:811.0
+  35. ABONOS:3021.0
+  36. ABONOS:520.0
+  39. ABONOS:1860.0
+  43. ABONOS:250.0
+  46. ABONOS:100.0
 (Step 4) 计算符合条件的交易总行数。
-执行结果：共统计到23行。因此，数值2 = 23。
-【校验规则执行】
-比较数值1（来自Comportamiento）和数值2（来自明细统计）是否相等。
-数值1 = 23
-数值2 = 23
-比较结果：相等。
-【决策结果】
-根据规则，如果相等，输出一致（无异常）。
-【结论与hit判定】
-入账交易笔数校验结果一致，数据匹配，符合规则要求。根据规则说明：'一致' = 数据匹配 = 合规 = hit=false。因此，hit=false。</t>
+- 统计结果：数值2 (明细统计的Abonos交易数) = 23。
+校验规则：比较数值1和数值2是否相等。
+- 数值1 (Comportamiento) = 23
+- 数值2 (明细统计) = 23
+- 比较结果：两者相等。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：数据一致，无异常。
+hit值判定：根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>审计规则MSTAR_BBVA_DTL_CNT_ABONOS执行完毕。从明细中准确筛选出所有'Abonos'列有值的交易，笔数与总览数据完全一致，无异常。</t>
+          <t>系统提供的参考值 '其中包含有效 Abonos (入账) 的交易数: 23' 与手动统计结果一致，验证了统计的准确性。</t>
         </is>
       </c>
     </row>
@@ -753,77 +754,57 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_CNT_CARGOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Retiros / Cargos (-)'对应的总笔数（Total Movimientos Cargos）。根据提供的'Comportamiento'部分，明确记录为：Retiros / Cargos (-): 25  41,916.14。因此，数值1（来自Comportamiento的总笔数）为：25。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分的所有交易行。该部分总笔数为48行。
-(Step 3) [关键过滤] 仅统计'Cargos'列有有效数值（非空且不为0）的行。如果某行只有'Abono'列有值，必须忽略。
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
+规则名称: 明细交易笔数校验_出账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
+- 数据来源：在提供的 'Comportamiento' 和 'total_movimientos' 部分，均明确列出 'Retiros / Cargos (-): 25' 和 'total_movimientos_cargos: 25'。
+- 提取结果：数值1 (来自Comportamiento) = 25。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+- 数据来源：已提供的结构化明细，总笔数为48。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+- 执行过滤：逐行检查明细中 'CARGOS' 字段。
+- 过滤标准：'CARGOS' 字段值为“无”或空白的行被忽略；'CARGOS' 字段为具体数值（如2453.0）的行被计入。
+- 符合条件的交易明细（共25笔，按原始顺序列出）：
+  1. 行4: CARGOS:2453.0
+  2. 行5: CARGOS:920.0
+  3. 行6: CARGOS:76.98
+  4. 行10: CARGOS:1190.0
+  5. 行11: CARGOS:549.0
+  6. 行12: CARGOS:3787.89
+  7. 行17: CARGOS:400.0
+  8. 行20: CARGOS:70.0
+  9. 行21: CARGOS:3120.0
+  10. 行22: CARGOS:650.0
+  11. 行23: CARGOS:171.0
+  12. 行24: CARGOS:683.1
+  13. 行25: CARGOS:199.0
+  14. 行26: CARGOS:199.0
+  15. 行33: CARGOS:9793.16
+  16. 行34: CARGOS:9576.0
+  17. 行37: CARGOS:610.0
+  18. 行38: CARGOS:650.0
+  19. 行40: CARGOS:1962.0
+  20. 行41: CARGOS:370.0
+  21. 行42: CARGOS:700.0
+  22. 行44: CARGOS:300.0
+  23. 行45: CARGOS:500.0
+  24. 行47: CARGOS:376.01
+  25. 行48: CARGOS:2610.0
 (Step 4) 计算符合条件的交易总行数。
-【明细统计过程】
-按照原始顺序，逐行检查'Cargos'列：
-1. Cargo:无 -&gt; 忽略
-2. Cargo:无 -&gt; 忽略
-3. Cargo:无 -&gt; 忽略
-4. Cargo:2453.0 -&gt; 计入
-5. Cargo:920.0 -&gt; 计入
-6. Cargo:76.98 -&gt; 计入
-7. Cargo:无 -&gt; 忽略
-8. Cargo:无 -&gt; 忽略
-9. Cargo:无 -&gt; 忽略
-10. Cargo:1190.0 -&gt; 计入
-11. Cargo:549.0 -&gt; 计入
-12. Cargo:3787.89 -&gt; 计入
-13. Cargo:无 -&gt; 忽略
-14. Cargo:无 -&gt; 忽略
-15. Cargo:无 -&gt; 忽略
-16. Cargo:无 -&gt; 忽略
-17. Cargo:400.0 -&gt; 计入
-18. Cargo:无 -&gt; 忽略
-19. Cargo:无 -&gt; 忽略
-20. Cargo:70.0 -&gt; 计入
-21. Cargo:3120.0 -&gt; 计入
-22. Cargo:650.0 -&gt; 计入
-23. Cargo:171.0 -&gt; 计入
-24. Cargo:683.1 -&gt; 计入
-25. Cargo:199.0 -&gt; 计入
-26. Cargo:199.0 -&gt; 计入
-27. Cargo:无 -&gt; 忽略
-28. Cargo:无 -&gt; 忽略
-29. Cargo:无 -&gt; 忽略
-30. Cargo:无 -&gt; 忽略
-31. Cargo:无 -&gt; 忽略
-32. Cargo:无 -&gt; 忽略
-33. Cargo:9793.16 -&gt; 计入
-34. Cargo:9576.0 -&gt; 计入
-35. Cargo:无 -&gt; 忽略
-36. Cargo:无 -&gt; 忽略
-37. Cargo:610.0 -&gt; 计入
-38. Cargo:650.0 -&gt; 计入
-39. Cargo:无 -&gt; 忽略
-40. Cargo:1962.0 -&gt; 计入
-41. Cargo:370.0 -&gt; 计入
-42. Cargo:700.0 -&gt; 计入
-43. Cargo:无 -&gt; 忽略
-44. Cargo:300.0 -&gt; 计入
-45. Cargo:500.0 -&gt; 计入
-46. Cargo:无 -&gt; 忽略
-47. Cargo:376.01 -&gt; 计入
-48. Cargo:2610.0 -&gt; 计入
-【统计结果】
-符合条件的交易行（Cargos列有有效数值）共计：25笔。
-因此，数值2（来自明细统计的总笔数）为：25。
-【校验与决策】
-严格按照校验规则执行：比较数值1（25）与数值2（25）是否相等。
-比较结果：两者相等。
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-【Hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。
-最终结论：明细交易中的出账笔数与Comportamiento中记录的总出账笔数一致，无异常。</t>
+- 统计结果：数值2 (来自明细统计) = 25。
+校验规则：比较数值1和数值2是否相等。
+- 数值1 (Comportamiento): 25
+- 数值2 (明细统计): 25
+- 比较结果：相等。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：根据规则，一致 → hit=false。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>审计完成。所有步骤均严格遵循规则逻辑执行，数据完整，判断清晰。</t>
+          <t>数据完整，计算过程清晰。明细中有效Cargos交易笔数与Comportamiento中报告的出账总笔数完全一致。规则校验通过。</t>
         </is>
       </c>
     </row>
@@ -850,52 +831,53 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_AMT_ABONOS的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总金额。提取结果为：42,857.90。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。已遍历全部48条明细。
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
+规则名称: 明细交易金额校验_入账金额
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
+- 提取结果：数值1 = 42,857.90
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+- 已遍历提供的48条明细记录。
 (Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。Comportamiento中的金额已去除逗号，明细中的金额均为数字格式，无需额外转换。
-【明细数据与计算过程】
-根据判断逻辑Step 3，累加所有'Abonos'列不为空的数值。按原始顺序逐笔列出如下：
-1. Abono: 920.0
-2. Abono: 200.0
-3. Abono: 337.8
-7. Abono: 1616.0
-8. Abono: 4344.85
-9. Abono: 300.0
-13. Abono: 320.0
-14. Abono: 300.0
-15. Abono: 813.0
-16. Abono: 400.0
-18. Abono: 880.0
-19. Abono: 320.0
-27. Abono: 4337.25
-28. Abono: 14000.0
-29. Abono: 1622.0
-30. Abono: 1155.0
-31. Abono: 4430.0
-32. Abono: 811.0
-35. Abono: 3021.0
-36. Abono: 520.0
-39. Abono: 1860.0
-43. Abono: 250.0
-46. Abono: 100.0
-求和计算：
-920.0 + 200.0 + 337.8 + 1616.0 + 4344.85 + 300.0 + 320.0 + 300.0 + 813.0 + 400.0 + 880.0 + 320.0 + 4337.25 + 14000.0 + 1622.0 + 1155.0 + 4430.0 + 811.0 + 3021.0 + 520.0 + 1860.0 + 250.0 + 100.0 = 42857.90
-【校验与决策】
-严格按照校验规则进行比较：
-数值1 (来自Comportamiento): 42857.90
-数值2 (来自明细累加): 42857.90
-比较结果：两个数值相等。
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-【hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。</t>
+- 根据数据提示，有效 Abonos 交易数为 23 笔。
+- 对所有记录的 'ABONOS' 字段进行累加。
+- 计算过程：
+  1. 920.0
+  2. 200.0
+  3. 337.8
+  7. 1616.0
+  8. 4344.85
+  9. 300.0
+  13. 320.0
+  14. 300.0
+  15. 813.0
+  16. 400.0
+  18. 880.0
+  19. 320.0
+  27. 4337.25
+  28. 14000.0
+  29. 1622.0
+  30. 1155.0
+  31. 4430.0
+  32. 811.0
+  35. 3021.0
+  36. 520.0
+  39. 1860.0
+  43. 250.0
+  46. 100.0
+- 求和：数值2 = 42,857.90
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+- 数值1 (42,857.90) 和数值2 (42,857.90) 均已正确转换为数字格式，无千分位逗号干扰。
+校验规则：比较1和2是否相等。
+- 比较结果：数值1 (42,857.90) 等于 数值2 (42,857.90)。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判断：一致 → hit=false。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>审计完成。明细中Abonos列不为空的交易共23笔，与Comportamiento中记录的笔数一致。金额总和完全匹配，数据合规。</t>
+          <t>明细交易中Abonos金额总和与Comportamiento中报告的总额完全一致，校验通过。</t>
         </is>
       </c>
     </row>
@@ -922,59 +904,57 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_AMT_CARGOS的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
-执行结果：从提供的Comportamiento数据中，提取到'Retiros / Cargos (-): 25  41,916.14'，因此数值1 = 41916.14。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
-执行结果：已遍历提供的48条明细记录。
-(Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-执行结果：逐条检查明细，筛选出'Cargo'列不为空（即非'无'）的记录，并累加其金额。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中的金额均为数字格式，无需处理千分位逗号。
-【明细数据与计算过程】
-根据Step 3，累加所有Cargos列不为空的交易金额，明细如下（按原始顺序列出）：
-1. 页面:0 | Oper:10/AGO | Liq:11/AGO | Cargo:2453.0
-2. 页面:0 | Oper:11/AGO | Liq:07/AGO | Cargo:920.0
-3. 页面:0 | Oper:11/AGO | Liq:09/AGO | Cargo:76.98
-4. 页面:0 | Oper:15/AGO | Liq:14/AGO | Cargo:1190.0
-5. 页面:0 | Oper:15/AGO | Liq:14/AGO | Cargo:549.0
-6. 页面:0 | Oper:15/AGO | Liq:14/AGO | Cargo:3787.89
-7. 页面:0 | Oper:16/AGO | Liq:18/AGO | Cargo:400.0
-8. 页面:0 | Oper:16/AGO | Liq:18/AGO | Cargo:70.0
-9. 页面:0 | Oper:18/AGO | Liq:16/AGO | Cargo:3120.0
-10. 页面:0 | Oper:25/AGO | Liq:22/AGO | Cargo:650.0
-11. 页面:0 | Oper:25/AGO | Liq:21/AGO | Cargo:171.0
-12. 页面:0 | Oper:25/AGO | Liq:21/AGO | Cargo:683.1
-13. 页面:0 | Oper:25/AGO | Liq:23/AGO | Cargo:199.0
-14. 页面:0 | Oper:25/AGO | Liq:23/AGO | Cargo:199.0
-15. 页面:0 | Oper:30/AGO | Liq:01/SEP | Cargo:9793.16
-16. 页面:0 | Oper:30/AGO | Liq:01/SEP | Cargo:9576.0
-17. 页面:0 | Oper:31/AGO | Liq:01/SEP | Cargo:610.0
-18. 页面:0 | Oper:01/SEP | Liq:01/SEP | Cargo:650.0
-19. 页面:0 | Oper:01/SEP | Liq:01/SEP | Cargo:1962.0
-20. 页面:0 | Oper:01/SEP | Liq:01/SEP | Cargo:370.0
-21. 页面:0 | Oper:01/SEP | Liq:01/SEP | Cargo:700.0
-22. 页面:0 | Oper:02/SEP | Liq:02/SEP | Cargo:300.0
-23. 页面:0 | Oper:02/SEP | Liq:01/SEP | Cargo:500.0
-24. 页面:0 | Oper:03/SEP | Liq:03/SEP | Cargo:376.01
-25. 页面:0 | Oper:04/SEP | Liq:02/SEP | Cargo:2610.0
-求和计算：
-2453.0 + 920.0 + 76.98 + 1190.0 + 549.0 + 3787.89 + 400.0 + 70.0 + 3120.0 + 650.0 + 171.0 + 683.1 + 199.0 + 199.0 + 9793.16 + 9576.0 + 610.0 + 650.0 + 1962.0 + 370.0 + 700.0 + 300.0 + 500.0 + 376.01 + 2610.0 = 41916.14
-因此，数值2（明细累加出账总额）= 41916.14。
-【校验规则与决策结果】
-严格按照校验规则执行：比较数值1（来自Comportamiento）与数值2（来自明细累加）是否相等。
-比较结果：数值1 = 41916.14，数值2 = 41916.14，两者完全相等。
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-【结论与hit判定】
-结论：Comportamiento中报告的出账总金额与明细中所有Cargos金额的累加和一致，无异常。
-根据规则说明：'一致' = 数据匹配 = 合规 = hit=false。
-因此，判定 hit=false。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
+规则名称: 明细交易金额校验_出账金额
+执行步骤（严格按照判断逻辑）：
+Step 1: 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
+- 数据来源：在提供的“Comportamiento”和“total_movimientos”部分，均明确给出出账总金额为 41,916.14。
+- 提取结果：数值1 = 41916.14
+Step 2 &amp; 3: 遍历 'Detalle de Movimientos Realizados'，累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
+- 数据来源：结构化明细部分，共48笔交易。
+- 过滤与累加：根据规则，仅累加“CARGOS”字段不为“无”的数值。
+- 计算过程：
+  1. 交易4: 2453.0
+  2. 交易5: 920.0
+  3. 交易6: 76.98
+  4. 交易10: 1190.0
+  5. 交易11: 549.0
+  6. 交易12: 3787.89
+  7. 交易17: 400.0
+  8. 交易20: 70.0
+  9. 交易21: 3120.0
+  10. 交易22: 650.0
+  11. 交易23: 171.0
+  12. 交易24: 683.1
+  13. 交易25: 199.0
+  14. 交易26: 199.0
+  15. 交易33: 9793.16
+  16. 交易34: 9576.0
+  17. 交易37: 610.0
+  18. 交易38: 650.0
+  19. 交易40: 1962.0
+  20. 交易41: 370.0
+  21. 交易42: 700.0
+  22. 交易44: 300.0
+  23. 交易45: 500.0
+  24. 交易47: 376.01
+  25. 交易48: 2610.0
+- 求和：将所有上述金额相加。
+- 求和结果：数值2 = 41916.14
+Step 4: 确保金额格式转换正确（处理千分位逗号）。
+- 检查：明细中的金额均为数字格式（如 2453.0），无千分位逗号。Comportamiento中的金额“41,916.14”已正确转换为数字41916.14。格式转换无误。
+校验规则（严格执行）：比较数值1和数值2是否相等。
+- 数值1 (来自Comportamiento): 41916.14
+- 数值2 (来自明细累加): 41916.14
+- 比较结果：两者完全相等。
+决策结果（严格执行）：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判断逻辑：一致 → hit=false。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>审计完成。明细中Cargos交易笔数为25笔，与Comportamiento中'Retiros / Cargos (-): 25'的记录笔数一致，进一步佐证了金额校验的准确性。</t>
+          <t>明细中出账交易共25笔，与‘total_movimientos_cargos: 25’一致。所有Cargos金额累加结果与Comportamiento中报告的总出账金额完全匹配，验证通过。</t>
         </is>
       </c>
     </row>
@@ -1003,195 +983,23 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
-执行步骤说明：
-1. 保持交易列表的原始顺序：已严格按照提供的48条交易明细顺序处理。
-2. 确定初始锚点(Balance_1)：
-   - 检查第一行交易（索引1），其'Operacion'字段值为10735.32，不为空。根据规则，将其记为Balance_1 = 10735.32。计算起点从下一行（索引2）开始。
-3. 寻找下一个锚点(Balance_2)并执行区间核算：
-   - 从索引2开始向下遍历，找到下一个有'Operacion'值的行。
-   - 遍历过程及核算结果如下：
-轮次1:
-   - Balance_1 = 10735.32 (来自索引1的Operacion)。
-   - 向下遍历，在索引4找到'Operacion' = 8820.12，记为Balance_2。
-   - 核算区间：索引2至索引4（包含索引4）。
-   - 区间内交易：
-       索引2: Cargo=无, Abono=200.0
-       索引3: Cargo=无, Abono=337.8
-       索引4: Cargo=2453.0, Abono=无
-   - 计算：Sum(Cargos)=2453.0, Sum(Abonos)=200.0+337.8=537.8
-   - 验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 = 10735.32 - 2453.0 + 537.8 - 8820.12 = 0.0
-   - result = 0.0
-轮次2:
-   - 新的Balance_1 = 8820.12 (来自索引4的Operacion)。
-   - 向下遍历，在索引6找到'Operacion' = 7823.14，记为Balance_2。
-   - 核算区间：索引5至索引6（包含索引6）。
-   - 区间内交易：
-       索引5: Cargo=920.0, Abono=无
-       索引6: Cargo=76.98, Abono=无
-   - 计算：Sum(Cargos)=920.0+76.98=996.98, Sum(Abonos)=0
-   - 验证公式：result = 8820.12 - 996.98 + 0 - 7823.14 = 0.0
-   - result = 0.0
-轮次3:
-   - 新的Balance_1 = 7823.14 (来自索引6的Operacion)。
-   - 向下遍历，在索引7找到'Operacion' = 9439.14，记为Balance_2。
-   - 核算区间：索引7（仅自身，因为Balance_1来自索引6，区间从索引7开始）。
-   - 区间内交易：
-       索引7: Cargo=无, Abono=1616.0
-   - 计算：Sum(Cargos)=0, Sum(Abonos)=1616.0
-   - 验证公式：result = 7823.14 - 0 + 1616.0 - 9439.14 = 0.0
-   - result = 0.0
-轮次4:
-   - 新的Balance_1 = 9439.14 (来自索引7的Operacion)。
-   - 向下遍历，在索引9找到'Operacion' = 14083.99，记为Balance_2。
-   - 核算区间：索引8至索引9（包含索引9）。
-   - 区间内交易：
-       索引8: Cargo=无, Abono=4344.85
-       索引9: Cargo=无, Abono=300.0
-   - 计算：Sum(Cargos)=0, Sum(Abonos)=4344.85+300.0=4644.85
-   - 验证公式：result = 9439.14 - 0 + 4644.85 - 14083.99 = 0.0
-   - result = 0.0
-轮次5:
-   - 新的Balance_1 = 14083.99 (来自索引9的Operacion)。
-   - 向下遍历，在索引14找到'Operacion' = 9177.1，记为Balance_2。
-   - 核算区间：索引10至索引14（包含索引14）。
-   - 区间内交易：
-       索引10: Cargo=1190.0, Abono=无
-       索引11: Cargo=549.0, Abono=无
-       索引12: Cargo=3787.89, Abono=无
-       索引13: Cargo=无, Abono=320.0
-       索引14: Cargo=无, Abono=300.0
-   - 计算：Sum(Cargos)=1190.0+549.0+3787.89=5526.89, Sum(Abonos)=320.0+300.0=620.0
-   - 验证公式：result = 14083.99 - 5526.89 + 620.0 - 9177.1 = 0.0
-   - result = 0.0
-轮次6:
-   - 新的Balance_1 = 9177.1 (来自索引14的Operacion)。
-   - 向下遍历，在索引20找到'Operacion' = 11120.1，记为Balance_2。
-   - 核算区间：索引15至索引20（包含索引20）。
-   - 区间内交易：
-       索引15: Cargo=无, Abono=813.0
-       索引16: Cargo=无, Abono=400.0
-       索引17: Cargo=400.0, Abono=无
-       索引18: Cargo=无, Abono=880.0
-       索引19: Cargo=无, Abono=320.0
-       索引20: Cargo=70.0, Abono=无
-   - 计算：Sum(Cargos)=400.0+70.0=470.0, Sum(Abonos)=813.0+400.0+880.0+320.0=2413.0
-   - 验证公式：result = 9177.1 - 470.0 + 2413.0 - 11120.1 = 0.0
-   - result = 0.0
-轮次7:
-   - 新的Balance_1 = 11120.1 (来自索引20的Operacion)。
-   - 向下遍历，在索引21找到'Operacion' = 8000.1，记为Balance_2。
-   - 核算区间：索引21（仅自身）。
-   - 区间内交易：
-       索引21: Cargo=3120.0, Abono=无
-   - 计算：Sum(Cargos)=3120.0, Sum(Abonos)=0
-   - 验证公式：result = 11120.1 - 3120.0 + 0 - 8000.1 = 0.0
-   - result = 0.0
-轮次8:
-   - 新的Balance_1 = 8000.1 (来自索引21的Operacion)。
-   - 向下遍历，在索引26找到'Operacion' = 6098.0，记为Balance_2。
-   - 核算区间：索引22至索引26（包含索引26）。
-   - 区间内交易：
-       索引22: Cargo=650.0, Abono=无
-       索引23: Cargo=171.0, Abono=无
-       索引24: Cargo=683.1, Abono=无
-       索引25: Cargo=199.0, Abono=无
-       索引26: Cargo=199.0, Abono=无
-   - 计算：Sum(Cargos)=650.0+171.0+683.1+199.0+199.0=1902.1, Sum(Abonos)=0
-   - 验证公式：result = 8000.1 - 1902.1 + 0 - 6098.0 = 0.0
-   - result = 0.0
-轮次9:
-   - 新的Balance_1 = 6098.0 (来自索引26的Operacion)。
-   - 向下遍历，在索引27找到'Operacion' = 10435.25，记为Balance_2。
-   - 核算区间：索引27（仅自身）。
-   - 区间内交易：
-       索引27: Cargo=无, Abono=4337.25
-   - 计算：Sum(Cargos)=0, Sum(Abonos)=4337.25
-   - 验证公式：result = 6098.0 - 0 + 4337.25 - 10435.25 = 0.0
-   - result = 0.0
-轮次10:
-   - 新的Balance_1 = 10435.25 (来自索引27的Operacion)。
-   - 向下遍历，在索引35找到'Operacion' = 16105.09，记为Balance_2。
-   - 核算区间：索引28至索引35（包含索引35）。
-   - 区间内交易：
-       索引28: Cargo=无, Abono=14000.0
-       索引29: Cargo=无, Abono=1622.0
-       索引30: Cargo=无, Abono=1155.0
-       索引31: Cargo=无, Abono=4430.0
-       索引32: Cargo=无, Abono=811.0
-       索引33: Cargo=9793.16, Abono=无
-       索引34: Cargo=9576.0, Abono=无
-       索引35: Cargo=无, Abono=3021.0
-   - 计算：Sum(Cargos)=9793.16+9576.0=19369.16, Sum(Abonos)=14000.0+1622.0+1155.0+4430.0+811.0+3021.0=25039.0
-   - 验证公式：result = 10435.25 - 19369.16 + 25039.0 - 16105.09 = 0.0
-   - result = 0.0
-轮次11:
-   - 新的Balance_1 = 16105.09 (来自索引35的Operacion)。
-   - 向下遍历，在索引37找到'Operacion' = 16015.09，记为Balance_2。
-   - 核算区间：索引36至索引37（包含索引37）。
-   - 区间内交易：
-       索引36: Cargo=无, Abono=520.0
-       索引37: Cargo=610.0, Abono=无
-   - 计算：Sum(Cargos)=610.0, Sum(Abonos)=520.0
-   - 验证公式：result = 16105.09 - 610.0 + 520.0 - 16015.09 = 0.0
-   - result = 0.0
-轮次12:
-   - 新的Balance_1 = 16015.09 (来自索引37的Operacion)。
-   - 向下遍历，在索引43找到'Operacion' = 14443.09，记为Balance_2。
-   - 核算区间：索引38至索引43（包含索引43）。
-   - 区间内交易：
-       索引38: Cargo=650.0, Abono=无
-       索引39: Cargo=无, Abono=1860.0
-       索引40: Cargo=1962.0, Abono=无
-       索引41: Cargo=370.0, Abono=无
-       索引42: Cargo=700.0, Abono=无
-       索引43: Cargo=无, Abono=250.0
-   - 计算：Sum(Cargos)=650.0+1962.0+370.0+700.0=3682.0, Sum(Abonos)=1860.0+250.0=2110.0
-   - 验证公式：result = 16015.09 - 3682.0 + 2110.0 - 14443.09 = 0.0
-   - result = 0.0
-轮次13:
-   - 新的Balance_1 = 14443.09 (来自索引43的Operacion)。
-   - 向下遍历，在索引46找到'Operacion' = 13743.09，记为Balance_2。
-   - 核算区间：索引44至索引46（包含索引46）。
-   - 区间内交易：
-       索引44: Cargo=300.0, Abono=无
-       索引45: Cargo=500.0, Abono=无
-       索引46: Cargo=无, Abono=100.0
-   - 计算：Sum(Cargos)=300.0+500.0=800.0, Sum(Abonos)=100.0
-   - 验证公式：result = 14443.09 - 800.0 + 100.0 - 13743.09 = 0.0
-   - result = 0.0
-轮次14:
-   - 新的Balance_1 = 13743.09 (来自索引46的Operacion)。
-   - 向下遍历，在索引47找到'Operacion' = 13367.08，记为Balance_2。
-   - 核算区间：索引47（仅自身）。
-   - 区间内交易：
-       索引47: Cargo=376.01, Abono=无
-   - 计算：Sum(Cargos)=376.01, Sum(Abonos)=0
-   - 验证公式：result = 13743.09 - 376.01 + 0 - 13367.08 = 0.0
-   - result = 0.0
-轮次15:
-   - 新的Balance_1 = 13367.08 (来自索引47的Operacion)。
-   - 向下遍历，在索引48找到'Operacion' = 10757.08，记为Balance_2。
-   - 核算区间：索引48（仅自身）。
-   - 区间内交易：
-       索引48: Cargo=2610.0, Abono=无
-   - 计算：Sum(Cargos)=2610.0, Sum(Abonos)=0
-   - 验证公式：result = 13367.08 - 2610.0 + 0 - 10757.08 = 0.0
-   - result = 0.0
-4. 校验规则执行：
-   - 记录每一个轮次中步骤4的result值。
-   - 所有轮次的result值均为0.0。
-5. 决策结果执行：
-   - 根据规则，如果每一个轮次中result值都为0，输出一致（无异常）。
-   - 因此，决策结果为：一致。
-结论：
-- 所有15个核算区间的result值均为0.0。
-- 根据决策规则，输出一致（无异常）。
-- 因此，hit=false。</t>
+执行步骤与结果：
+1. 保持交易列表的原始顺序：已按照提供的明细列表顺序处理，共48笔。
+2. 确定初始锚点(Balance_1)：根据规则，第一行交易（索引1）有'OPERACIÓN'值10735.32，将其记为Balance_1。计算起点从下一行（索引2）开始。
+3. 寻找下一个锚点(Balance_2)并迭代核算：按照规则逻辑，遍历列表，找到所有包含'OPERACIÓN'或'SALDO OPERACIÓN'的行作为锚点，并计算相邻锚点之间的交易区间。
+   - 系统提供的内部计算（Balance Check Analysis）已严格按照此逻辑执行，共识别出16个核算区间（Round 1 至 Round 16）。
+   - 每个区间的计算均遵循公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
+4. 校验规则：检查所有轮次的result值。根据系统提供的内部计算结果，所有16个区间的result值均为0.00（Diff=0.00 -&gt; PASS）。
+结论：所有轮次中步骤4的result值都为0，根据决策结果，输出一致（无异常）。
+参考数据：系统内部计算已覆盖所有区间，并验证通过。交易总笔数为48笔，超过30笔，因此不列出所有交易明细。以下是前3笔交易作为示例，以展示原始顺序：
+1. 页面:0 | Oper:07/AGO | ... | CARGOS:无 | ABONOS:920.0 | OPERACIÓN:10735.32 | ...
+2. 页面:0 | Oper:08/AGO | ... | CARGOS:无 | ABONOS:200.0 | OPERACIÓN:10935.32 | ...
+3. 页面:0 | Oper:10/AGO | ... | CARGOS:无 | ABONOS:337.8 | OPERACIÓN:无 | ...</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>已严格按照规则要求的步骤、逻辑和校验规则执行。所有核算区间均平衡，未发现异常。</t>
+          <t>系统提供的内部余额连续性检查（Balance Check Analysis）已完全按照规则定义的逻辑执行，并得出所有区间校验通过的结论。审计系统采纳此结论作为最终判定依据。</t>
         </is>
       </c>
     </row>
@@ -1218,22 +1026,25 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行：从提供的数据中获取模糊匹配包含“Periodo”的信息。找到内容为：'Periodo: DEL 05/08/2025 AL 04/09/2025'。解析后得到步骤1的日期区间为：[DEL 05/08/2025, AL 04/09/2025]。
-步骤2执行：从'Detalle de Movimientos Realizados'中提取所有OPER和LIQ字段的日期。所有日期列表如下（格式为日/月缩写）：
-OPER: 07/AGO, 08/AGO, 10/AGO, 10/AGO, 11/AGO, 11/AGO, 13/AGO, 14/AGO, 14/AGO, 15/AGO, 15/AGO, 15/AGO, 15/AGO, 15/AGO, 16/AGO, 16/AGO, 16/AGO, 16/AGO, 16/AGO, 16/AGO, 18/AGO, 25/AGO, 25/AGO, 25/AGO, 25/AGO, 25/AGO, 29/AGO, 30/AGO, 30/AGO, 30/AGO, 30/AGO, 30/AGO, 30/AGO, 30/AGO, 30/AGO, 31/AGO, 31/AGO, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 02/SEP, 02/SEP, 02/SEP, 03/SEP, 04/SEP。
-LIQ: 07/AGO, 08/AGO, 11/AGO, 11/AGO, 07/AGO, 09/AGO, 13/AGO, 14/AGO, 14/AGO, 14/AGO, 14/AGO, 14/AGO, 18/AGO, 18/AGO, 18/AGO, 18/AGO, 18/AGO, 18/AGO, 18/AGO, 18/AGO, 16/AGO, 22/AGO, 21/AGO, 21/AGO, 23/AGO, 23/AGO, 29/AGO, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 01/SEP, 02/SEP, 02/SEP, 01/SEP, 03/SEP, 03/SEP, 02/SEP。
-将月份缩写转换为数字以便比较：AGO=08，SEP=09。
-计算最小日期（min_date）：在OPER和LIQ合并的日期列表中，最早的日期是07/08（即07/AGO）。
-计算最大日期（max_date）：在OPER和LIQ合并的日期列表中，最晚的日期是04/09（即04/SEP）。
-步骤3（校验规则）执行：判断步骤2中的min_date（07/08/2025）和max_date（04/09/2025）是否在步骤1的日期区间[05/08/2025, 04/09/2025]范围内。
-比较结果：min_date（07/08/2025）大于等于区间起始日（05/08/2025），符合要求。max_date（04/09/2025）小于等于区间结束日（04/09/2025），符合要求。因此，min_date和max_date均在步骤1的日期区间范围内。
-决策结果执行：根据规则，如果步骤2中的min_date和max_date在步骤1的日期区间范围内，应输出“一致（无异常）”。
-最终结论：经逐步执行判断逻辑和校验规则，min_date和max_date均在Periodo区间内，结果应为“一致（无异常）”。</t>
+          <t>【Step 1: 获取Periodo信息】
+从数据中提取到Periodo信息为：'DEL 05/08/2025 AL 04/09/2025'。因此，步骤1的日期区间为：[05/08/2025, 04/09/2025]。
+【Step 2: 计算明细中的最小和最大日期】
+从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。
+- 最小日期 (min_date): 在明细中，最早的日期是'07/AGO'（对应07/08/2025）。
+- 最大日期 (max_date): 在明细中，最晚的日期是'04/SEP'（对应04/09/2025）。
+【校验规则：判断min_date和max_date是否在Step1的区间内】
+- Step1区间: [05/08/2025, 04/09/2025]
+- min_date (07/08/2025): 07/08/2025 晚于 05/08/2025，早于 04/09/2025，因此在区间内。
+- max_date (04/09/2025): 04/09/2025 等于区间结束日期 04/09/2025，因此在区间内。
+【决策结果】
+步骤2中的min_date和max_date均在步骤1的日期区间范围内。因此，输出“一致（无异常）”。
+【hit值判定】
+根据规则，一致（无异常）对应 hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>分析过程严格遵循了规则中定义的步骤。步骤1成功提取了Periodo区间。步骤2成功提取并计算了所有交易明细中的最小和最大日期。步骤3的校验确认了这两个日期均在Periodo区间内。根据决策逻辑，应输出“一致（无异常）”。因此，规则未命中，hit应为false。；已根据 evidence 中的'一致'结论自动修正 hit 值为 False</t>
+          <t>规则仅校验日期范围，不要求明细日期完全覆盖整个区间。明细中最早日期为07/AGO，晚于区间起始日05/AGO，但仍在区间内，符合规则要求。</t>
         </is>
       </c>
     </row>
@@ -1260,64 +1071,18 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已取出Detalle de Movimientos Realizados中所有48条记录的DESCRIPCION字段值。
-步骤2执行结果：将所有DESCRIPCION值翻译成中文。翻译结果如下：
-1. 向第三方账户支付 BNET 2739112472 pago
-2. 向第三方账户支付 BNET 1526195291 Dimo-无概念
-3. 向第三方账户支付 BNET 1556086301 teamo
-4. SPEI发送至BANAMEX 0405250TDCesca 00005256783864633095 MBAN01002508110079343139 Rodrigo Guadarrama
-5. AMAZON MEXICO RFC: ANE 140618P37 17:36 AUT: 836547
-6. STRIPE *UBER TRIP RFC: UPM 200220LK5 13:09 AUT: 156760
-7. 向第三方账户支付 BNET 1556086301 majo
-8. 工资支付 AYALA HERRERA ALFREDO
-9. SPEI接收自COTIABANK 0140825转账给Ernesto 00044180256049647866 2025081440044B36L0000393423593 FLORES PEREZ JIMENA
-10. TOTALPLAY CAT RFC: TPT 890516JP5 11:26 AUT: 672366
-11. TELCEL 018001200006 RFC: VPS 100716CK9 12:28 AUT: 705926
-12. LIVERPOOL POR INTERNET RFC: DLI 931201MI9 11:30 AUT: 731182
-13. 向第三方账户支付 BNET 1586538741 转账给 ERNESTO F
-14. SPEI接收自AZTECA 4454427Gas e Internet 00127180013472002918 250818072905111344I GUADARRAMA PEREZ RODRIGO
-15. 向第三方账户支付 BNET 1556086301 tiamo
-16. 向第三方账户支付 BNET 1556086301 bolsa 3
-17. 向第三方账户支付 BNET 1515465135 Bolsa3
-18. 向第三方账户支付 BNET 1550181555 转账给 Ernesto F
-19. 向第三方账户支付 BNET 1585741650 gas internet
-20. 向第三方账户支付 BNET 1556086301 Labial
-21. MIT*INST CDEFIS RFC: ICD 2103223Y0 12:34 AUT: 570819
-22. MERPAGO*AGREGADOR RFC: MAG 2105031W3 16:02 AUT: 152804
-23. AMAZON MEXICO RFC: ANE 140618P37 22:58 AUT: 313973
-24. AMAZON RFC: ANE 140618P37 22:58 AUT: 314497
-25. AMAZON MEXICO RFC: ANE 140618P37 11:33 AUT: 969437
-26. AMAZON MEXICO RFC: ANE 140618P37 11:33 AUT: 971056
-27. 工资支付 AYALA HERRERA ALFREDO
-28. SPEI接收自HSBC 0004447Pago Tanda 00021180065153320678 HSBC336735 ANGEL HUMBERTO AGUILAR SALAS
-29. 向第三方账户支付 BNET 1556086301 boletos majo bad
-30. 向第三方账户支付 BNET 1556086301 papa medi tenis
-31. 向第三方账户支付 BNET 1556086301 TC ESCA
-32. 向第三方账户支付 BNET 1519393071 bad
-33. 信用卡支付 账户: BMOV
-34. SPEI发送至BANAMEX 2307250TDC 00005256783864633095 MBAN01002509010073890935 Rodrigo Guadarrama
-35. 向第三方账户支付 BNET 1556086301 TC COSMETICOS
-36. 向第三方账户支付 BNET 1586538741 转账给 ERNESTO F
-37. 向第三方账户支付 BNET 1556086301 Xsuqloterico
-38. MERPAGO*AGREGADOR RFC: MAG 2105031W3 14:56 AUT: 046454
-39. 向第三方账户支付 BNET 1585741650 boletos
-40. 向第三方账户支付 BNET 1519424817 kendrick2
-41. 向第三方账户支付 BNET 1507438373 Anillo
-42. 向第三方账户支付 BNET 1524115913 Caja
-43. 向第三方账户支付 BNET 1556086301 xprecioso
-44. 向第三方账户支付 BNET 1585741650 转账给 ESAU F
-45. GASOL CENTINELA RFC: CANL531213I98 18:18 AUT: 192793
-46. 向第三方账户支付 BNET 1585741650 cambio
-47. OPENAI *CHATGPT SUBSCR USD 20.00TC018.8005AUT: 387681
-48. MIT*INST CDEFIS RFC: ICD 2103223Y0 22:57 AUT: 725597
-校验规则执行结果：逐条检查上述所有中文描述，是否命中以下任意关键词：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-经检查，所有中文描述均为常规的个人消费、转账、工资收入、服务支付（如亚马逊、Uber、电信、健身房、汽油、ChatGPT订阅等），以及向亲友的转账（标注为“pago”、“transf”、“gas internet”、“boletos”等）。没有任何一条描述包含或暗示上述高风险职业关键词。
-决策结果：根据规则，全部描述均未命中关键词，因此输出“正常”。</t>
+          <t>步骤1：取出Detalle de Movimientos Realizados中所有交易的DESCRIPCION字段值。
+步骤2：将所有DESCRIPCION值翻译成中文。
+执行步骤1：从提供的48笔交易明细中，提取出所有‘描述’字段的值。
+执行步骤2：将描述翻译为中文。主要交易类型包括：向第三方账户付款（PAGO CUENTA DE TERCERO BNET）、SPEI发送/接收、工资入账（PAGO DE NOMINA）、各类商户消费（如AMAZON、STRIPE *UBER TRIP、TOTALPLAY、TELCEL、LIVERPOOL、MIT*INST CDEFIS、MERPAGO*AGREGADOR、GASOL CENTINELA、OPENAI *CHATGPT）等。
+校验规则：检查所有描述的中文含义是否命中以下任意关键词：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
+分析结果：翻译后的交易描述均为常规的工资收入、个人转账、在线购物、支付账单（如电话费、网络费、汽油费）、订阅服务（如ChatGPT）以及向朋友或家人的小额转账。没有任何描述涉及或暗示上述高风险职业关键词。
+决策结果：所有描述均未命中关键词，输出正常。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>审计规则MSTAR_BBVA_DTL_ANAL_RISK_OCC（交易明细分析_高风险职业）执行完毕。所有交易描述经翻译和关键词比对后，未发现与高风险职业相关的描述，判定为正常。hit=False表示规则未命中（合规）。</t>
+          <t>交易描述清晰，均为个人日常消费、转账及工资收入，未发现与高风险职业相关的关键词。</t>
         </is>
       </c>
     </row>
@@ -1344,41 +1109,55 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>步骤1：已获取Detalle de Movimientos Realizados中所有48条记录，并按OPER日期升序排序（原始数据已按此顺序提供）。
-步骤2：统计所有记录中ABONOS取值不为空的总记录数。经统计，ABONOS不为空的记录有：记录1(920.0)、记录2(200.0)、记录3(337.8)、记录7(1616.0)、记录8(4344.85)、记录9(300.0)、记录13(320.0)、记录14(300.0)、记录15(813.0)、记录16(400.0)、记录18(880.0)、记录19(320.0)、记录27(4337.25)、记录28(14000.0)、记录29(1622.0)、记录30(1155.0)、记录31(4430.0)、记录32(811.0)、记录35(3021.0)、记录36(520.0)、记录39(1860.0)、记录43(250.0)、记录46(100.0)。共计23条。因此，total_cargo_cnt = 23。
-步骤3至步骤6：开始逐轮次查找。
-轮次1：起始行=记录1，ABONOS1=920.0，OPER1=07/AGO。向下查找CARGOS列值与ABONOS1(920.0)相同的记录。找到记录5，Cargo=920.0，OPER2=11/AGO。计算间隔天数：11日-7日=4天。result=4。
-轮次2：起始行=记录2，ABONOS1=200.0，OPER1=08/AGO。向下查找CARGOS=200.0的记录。未找到。本轮次无匹配，跳过。
-轮次3：起始行=记录3，ABONOS1=337.8，OPER1=10/AGO。向下查找CARGOS=337.8的记录。未找到。跳过。
-轮次4：起始行=记录7，ABONOS1=1616.0，OPER1=13/AGO。向下查找CARGOS=1616.0的记录。未找到。跳过。
-轮次5：起始行=记录8，ABONOS1=4344.85，OPER1=14/AGO。向下查找CARGOS=4344.85的记录。未找到。跳过。
-轮次6：起始行=记录9，ABONOS1=300.0，OPER1=14/AGO。向下查找CARGOS=300.0的记录。找到记录44，Cargo=300.0，OPER2=02/SEP。计算间隔天数：8月14日至9月2日，间隔天数大于1天。result&gt;1。
-轮次7：起始行=记录13，ABONOS1=320.0，OPER1=15/AGO。向下查找CARGOS=320.0的记录。未找到。跳过。
-轮次8：起始行=记录14，ABONOS1=300.0，OPER1=15/AGO。向下查找CARGOS=300.0的记录。找到记录44，Cargo=300.0，OPER2=02/SEP。间隔天数大于1天。result&gt;1。
-轮次9：起始行=记录15，ABONOS1=813.0，OPER1=16/AGO。向下查找CARGOS=813.0的记录。未找到。跳过。
-轮次10：起始行=记录16，ABONOS1=400.0，OPER1=16/AGO。向下查找CARGOS=400.0的记录。找到记录17，Cargo=400.0，OPER2=16/AGO。计算间隔天数：16日-16日=0天。result=0。
-轮次11：起始行=记录18，ABONOS1=880.0，OPER1=16/AGO。向下查找CARGOS=880.0的记录。未找到。跳过。
-轮次12：起始行=记录19，ABONOS1=320.0，OPER1=16/AGO。向下查找CARGOS=320.0的记录。未找到。跳过。
-轮次13：起始行=记录27，ABONOS1=4337.25，OPER1=29/AGO。向下查找CARGOS=4337.25的记录。未找到。跳过。
-轮次14：起始行=记录28，ABONOS1=14000.0，OPER1=30/AGO。向下查找CARGOS=14000.0的记录。未找到。跳过。
-轮次15：起始行=记录29，ABONOS1=1622.0，OPER1=30/AGO。向下查找CARGOS=1622.0的记录。未找到。跳过。
-轮次16：起始行=记录30，ABONOS1=1155.0，OPER1=30/AGO。向下查找CARGOS=1155.0的记录。未找到。跳过。
-轮次17：起始行=记录31，ABONOS1=4430.0，OPER1=30/AGO。向下查找CARGOS=4430.0的记录。未找到。跳过。
-轮次18：起始行=记录32，ABONOS1=811.0，OPER1=30/AGO。向下查找CARGOS=811.0的记录。未找到。跳过。
-轮次19：起始行=记录35，ABONOS1=3021.0，OPER1=30/AGO。向下查找CARGOS=3021.0的记录。未找到。跳过。
-轮次20：起始行=记录36，ABONOS1=520.0，OPER1=31/AGO。向下查找CARGOS=520.0的记录。未找到。跳过。
-轮次21：起始行=记录39，ABONOS1=1860.0，OPER1=01/SEP。向下查找CARGOS=1860.0的记录。未找到。跳过。
-轮次22：起始行=记录43，ABONOS1=250.0，OPER1=01/SEP。向下查找CARGOS=250.0的记录。未找到。跳过。
-轮次23：起始行=记录46，ABONOS1=100.0，OPER1=02/SEP。向下查找CARGOS=100.0的记录。未找到。跳过。
-校验规则1：记录每一轮次中步骤5的result值，如果result小于等于1，则result_total计数加1。根据以上轮次，仅轮次10的result=0满足条件。因此，result_total = 1。
-校验规则2：计算ratio = result_total / total_cargo_cnt = 1 / 23 ≈ 0.0435。
-决策结果：ratio (0.0435) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
-最终结论：根据审计规则MSTAR_BBVA_DTL_ANAL_FAST_IO，快进快出交易比例未超过阈值，无异常。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
+规则名称: 交易明细分析_快进快出
+执行步骤与结果：
+步骤1：已取Detalle de Movimientos Realizados中所有48条记录，并按OPER日期升序排序（数据已按此顺序提供）。
+步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据中提供的参考值，'有效 Abonos (入账) 的交易数'为23。因此，total_cargo_cnt = 23。
+步骤3至步骤6：开始逐一查找ABONOS不为空的记录作为起始行，并寻找其对应的CARGOS记录。
+详细轮次分析（共23个起始行）：
+1. 起始行1 (索引1): ABONOS1=920.0, OPER1=07/AGO。向下查找CARGOS=920.0的记录，找到行5 (索引5)，OPER2=11/AGO。日期差(11 AGO - 07 AGO) = 4天。result=4。
+2. 起始行2 (索引2): ABONOS1=200.0, OPER1=08/AGO。向下查找CARGOS=200.0的记录，未找到。result=N/A（无对应出账，不计入快进快出）。
+3. 起始行3 (索引3): ABONOS1=337.8, OPER1=10/AGO。向下查找CARGOS=337.8的记录，未找到。result=N/A。
+4. 起始行7 (索引7): ABONOS1=1616.0, OPER1=13/AGO。向下查找CARGOS=1616.0的记录，未找到。result=N/A。
+5. 起始行8 (索引8): ABONOS1=4344.85, OPER1=14/AGO。向下查找CARGOS=4344.85的记录，未找到。result=N/A。
+6. 起始行9 (索引9): ABONOS1=300.0, OPER1=14/AGO。向下查找CARGOS=300.0的记录，找到行44 (索引44)，OPER2=02/SEP。日期差(02 SEP - 14 AGO) &gt; 1天。result&gt;1。
+7. 起始行13 (索引13): ABONOS1=320.0, OPER1=15/AGO。向下查找CARGOS=320.0的记录，未找到。result=N/A。
+8. 起始行14 (索引14): ABONOS1=300.0, OPER1=15/AGO。向下查找CARGOS=300.0的记录，找到行44 (索引44)，OPER2=02/SEP。日期差&gt;1天。result&gt;1。
+9. 起始行15 (索引15): ABONOS1=813.0, OPER1=16/AGO。向下查找CARGOS=813.0的记录，未找到。result=N/A。
+10. 起始行16 (索引16): ABONOS1=400.0, OPER1=16/AGO。向下查找CARGOS=400.0的记录，找到行17 (索引17)，OPER2=16/AGO。日期差(16 AGO - 16 AGO) = 0天。result=0。
+11. 起始行18 (索引18): ABONOS1=880.0, OPER1=16/AGO。向下查找CARGOS=880.0的记录，未找到。result=N/A。
+12. 起始行19 (索引19): ABONOS1=320.0, OPER1=16/AGO。向下查找CARGOS=320.0的记录，未找到。result=N/A。
+13. 起始行27 (索引27): ABONOS1=4337.25, OPER1=29/AGO。向下查找CARGOS=4337.25的记录，未找到。result=N/A。
+14. 起始行28 (索引28): ABONOS1=14000.0, OPER1=30/AGO。向下查找CARGOS=14000.0的记录，未找到。result=N/A。
+15. 起始行29 (索引29): ABONOS1=1622.0, OPER1=30/AGO。向下查找CARGOS=1622.0的记录，未找到。result=N/A。
+16. 起始行30 (索引30): ABONOS1=1155.0, OPER1=30/AGO。向下查找CARGOS=1155.0的记录，未找到。result=N/A。
+17. 起始行31 (索引31): ABONOS1=4430.0, OPER1=30/AGO。向下查找CARGOS=4430.0的记录，未找到。result=N/A。
+18. 起始行32 (索引32): ABONOS1=811.0, OPER1=30/AGO。向下查找CARGOS=811.0的记录，未找到。result=N/A。
+19. 起始行35 (索引35): ABONOS1=3021.0, OPER1=30/AGO。向下查找CARGOS=3021.0的记录，未找到。result=N/A。
+20. 起始行36 (索引36): ABONOS1=520.0, OPER1=31/AGO。向下查找CARGOS=520.0的记录，未找到。result=N/A。
+21. 起始行39 (索引39): ABONOS1=1860.0, OPER1=01/SEP。向下查找CARGOS=1860.0的记录，未找到。result=N/A。
+22. 起始行43 (索引43): ABONOS1=250.0, OPER1=01/SEP。向下查找CARGOS=250.0的记录，未找到。result=N/A。
+23. 起始行46 (索引46): ABONOS1=100.0, OPER1=02/SEP。向下查找CARGOS=100.0的记录，未找到。result=N/A。
+校验规则执行：
+1. 记录每个轮次的result值，仅当result存在（即找到对应CARGOS记录）且result &lt;= 1时，result_total计数加1。
+2. 根据以上分析：
+   - 轮次1: result=4 &gt; 1，不计入。
+   - 轮次6: result&gt;1，不计入。
+   - 轮次8: result&gt;1，不计入。
+   - 轮次10: result=0 &lt;= 1，计入。
+   - 其他轮次均未找到对应CARGOS记录（result=N/A），不计入。
+因此，result_total = 1。
+3. 计算ratio = result_total / total_cargo_cnt = 1 / 23 ≈ 0.0435。
+决策结果：
+规则要求：如果ratio &gt; 0.8，输出“命中快进快出（异常）”；如果ratio &lt;= 0.8，输出“未命中快进快出（无异常）”。
+计算得出ratio ≈ 0.0435，满足ratio &lt;= 0.8。
+最终判定：未命中快进快出（无异常）。因此hit=false。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>严格按照审计规则的判断逻辑、校验规则和决策结果执行。所有计算基于提供的明细数据，未进行任何猜测或调整。</t>
+          <t>严格按照规则定义的逻辑执行。仅发现一笔入账（400.0）在当天有相同金额的出账，间隔天数为0，符合快进快出定义。但该笔交易占所有入账交易的比例(1/23)远低于阈值0.8，故判定为无异常。</t>
         </is>
       </c>
     </row>
@@ -1405,18 +1184,37 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-执行结果：已从提供的48条交易明细中提取所有描述（DESCRIPCION）字段的值。
-步骤2：校验规则：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-执行过程：对提取出的48个描述值逐一进行关键词匹配检查。
-检查结果：所有描述值中均未发现包含关键词'Apuesta'、'médico'、'médic'或'juego'。
-决策结果：由于全部描述值均未命中任意一个关键词，根据规则，输出'正常'。
-结论：交易明细描述中未发现异常备注。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_ANAL_ABN_REM
+规则名称: 交易明细分析_异常备注
+执行步骤（严格按照判断逻辑）：
+1. 获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
+   - 已从提供的48笔交易明细中提取所有“描述”字段的值。
+校验规则（严格按照校验规则）：
+2. 判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
+   - 关键词“Apuesta”：未在任何描述中发现。
+   - 关键词“médico / médic”：未在任何描述中发现。
+   - 关键词“juego”：未在任何描述中发现。
+决策结果（严格按照决策结果）：
+3. 命中任意一个，输出异常；全部都没命中，输出正常。
+   - 所有48笔交易的描述均未命中三个关键词中的任何一个。
+证据详情：
+- 总交易笔数：48笔。
+- 已逐笔检查所有描述，未发现包含“Apuesta”、“médico / médic”或“juego”的交易。
+- 示例（前3笔交易描述）：
+   1. PAGO CUENTA DE TERCERO BNET 2739112472 pago
+   2. PAGO CUENTA DE TERCERO BNET 1526195291 Dimo-Sin concepto
+   3. PAGO CUENTA DE TERCERO BNET 1556086301 teamo
+- 示例（后3笔交易描述）：
+   46. PAGO CUENTA DE TERCERO BNET 1585741650 cambio
+   47. OPENAI *CHATGPT SUBSCR USD 20.00TC018.8005AUT: 387681
+   48. MIT*INST CDEFIS RFC: ICD 2103223Y0 22:57 AUT: 725597
+结论：
+所有交易描述均未命中规则定义的关键词，因此规则未命中，输出正常。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>审计规则MSTAR_BBVA_DTL_ANAL_ABN_REM（交易明细分析_异常备注）执行完毕。已严格按照判断逻辑、校验规则和决策结果执行。</t>
+          <t>已严格按照规则定义的步骤和逻辑执行检查，未发现违规备注。</t>
         </is>
       </c>
     </row>
@@ -1443,48 +1241,51 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>步骤1：获取解析后Detalle de Movimientos Realizados部分的description。
-步骤2：依次获取每一条transactions部分的description中的时间。遍历所有48条记录，提取到包含时间的描述如下：
-1. 记录5: 'AMAZON MEXICO RFC: ANE 140618P37 17:36 AUT: 836547' -&gt; 时间: 17:36
-2. 记录6: 'STRIPE *UBER TRIP RFC: UPM 200220LK5 13:09 AUT: 156760' -&gt; 时间: 13:09
-3. 记录10: 'TOTALPLAY CAT RFC: TPT 890516JP5 11:26 AUT: 672366' -&gt; 时间: 11:26
-4. 记录11: 'TELCEL 018001200006 RFC: VPS 100716CK9 12:28 AUT: 705926' -&gt; 时间: 12:28
-5. 记录12: 'LIVERPOOL POR INTERNET RFC: DLI 931201MI9 11:30 AUT: 731182' -&gt; 时间: 11:30
-6. 记录21: 'MIT*INST CDEFIS RFC: ICD 2103223Y0 12:34 AUT: 570819' -&gt; 时间: 12:34
-7. 记录22: 'MERPAGO*AGREGADOR RFC: MAG 2105031W3 16:02 AUT: 152804' -&gt; 时间: 16:02
-8. 记录23: 'AMAZON MEXICO RFC: ANE 140618P37 22:58 AUT: 313973' -&gt; 时间: 22:58
-9. 记录24: 'AMAZON RFC: ANE 140618P37 22:58 AUT: 314497' -&gt; 时间: 22:58
-10. 记录25: 'AMAZON MEXICO RFC: ANE 140618P37 11:33 AUT: 969437' -&gt; 时间: 11:33
-11. 记录26: 'AMAZON MEXICO RFC: ANE 140618P37 11:33 AUT: 971056' -&gt; 时间: 11:33
-12. 记录38: 'MERPAGO*AGREGADOR RFC: MAG 2105031W3 14:56 AUT: 046454' -&gt; 时间: 14:56
-13. 记录45: 'GASOL CENTINELA RFC: CANL531213I98 18:18 AUT: 192793' -&gt; 时间: 18:18
-14. 记录48: 'MIT*INST CDEFIS RFC: ICD 2103223Y0 22:57 AUT: 725597' -&gt; 时间: 22:57
-其他记录的description中没有时间信息，已按规则跳过。
-步骤3：将获取到的所有时间放入集合。提取到的时间集合为：['17:36', '13:09', '11:26', '12:28', '11:30', '12:34', '16:02', '22:58', '22:58', '11:33', '11:33', '14:56', '18:18', '22:57']。
-步骤4：统计时间集合中处于2点至5点（包括2点和5点，24小时制）的总交易笔数。检查每个时间：
-- 17:36 -&gt; 不在2-5点
-- 13:09 -&gt; 不在2-5点
-- 11:26 -&gt; 不在2-5点
-- 12:28 -&gt; 不在2-5点
-- 11:30 -&gt; 不在2-5点
-- 12:34 -&gt; 不在2-5点
-- 16:02 -&gt; 不在2-5点
-- 22:58 -&gt; 不在2-5点
-- 22:58 -&gt; 不在2-5点
-- 11:33 -&gt; 不在2-5点
-- 11:33 -&gt; 不在2-5点
-- 14:56 -&gt; 不在2-5点
-- 18:18 -&gt; 不在2-5点
-- 22:57 -&gt; 不在2-5点
-统计结果：count = 0。
-校验规则：判断count是否大于10。
-决策结果：count=0，小于等于10，因此输出“正常”。
-结论：根据审计规则MSTAR_BBVA_TIME_CHK_SPECIAL，特殊时间段（2点至5点）的交易笔数为0，未超过10笔，判定为正常。</t>
+          <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
+规则名称: 交易时间校验_特殊时间段交易
+执行步骤与结果：
+1. 步骤1：遍历‘Detalle de Movimientos Realizados’中所有48条记录的‘描述’字段，提取其中包含的时间信息。
+2. 提取结果：在48条记录中，只有部分交易的描述包含时间信息。成功提取到时间的交易如下（按原始顺序列出）：
+   - 记录5: AMAZON MEXICO ... 17:36 ...
+   - 记录6: STRIPE *UBER TRIP ... 13:09 ...
+   - 记录10: TOTALPLAY CAT ... 11:26 ...
+   - 记录11: TELCEL ... 12:28 ...
+   - 记录12: LIVERPOOL POR INTERNET ... 11:30 ...
+   - 记录21: MIT*INST CDEFIS ... 12:34 ...
+   - 记录22: MERPAGO*AGREGADOR ... 16:02 ...
+   - 记录23: AMAZON MEXICO ... 22:58 ...
+   - 记录24: AMAZON ... 22:58 ...
+   - 记录25: AMAZON MEXICO ... 11:33 ...
+   - 记录26: AMAZON MEXICO ... 11:33 ...
+   - 记录38: MERPAGO*AGREGADOR ... 14:56 ...
+   - 记录45: GASOL CENTINELA ... 18:18 ...
+   - 记录48: MIT*INST CDEFIS ... 22:57 ...
+   其余记录的描述中不包含时间信息，已按规则跳过。
+3. 步骤2：将提取到的时间放入集合。提取到的时间集合为：{'17:36', '13:09', '11:26', '12:28', '11:30', '12:34', '16:02', '22:58', '11:33', '14:56', '18:18', '22:57'}。
+4. 步骤3：统计集合中处于2点至5点（包括2点和5点，24小时制）的交易笔数。检查每个时间：
+   - 17:36 -&gt; 不在2-5点区间
+   - 13:09 -&gt; 不在2-5点区间
+   - 11:26 -&gt; 不在2-5点区间
+   - 12:28 -&gt; 不在2-5点区间
+   - 11:30 -&gt; 不在2-5点区间
+   - 12:34 -&gt; 不在2-5点区间
+   - 16:02 -&gt; 不在2-5点区间
+   - 22:58 -&gt; 不在2-5点区间
+   - 11:33 -&gt; 不在2-5点区间
+   - 14:56 -&gt; 不在2-5点区间
+   - 18:18 -&gt; 不在2-5点区间
+   - 22:57 -&gt; 不在2-5点区间
+   统计结果：count = 0。
+校验规则：count是否大于10。
+比较结果：count = 0，不大于10。
+决策结果：根据规则，count &lt;= 10，输出“正常”。
+结论：未发现交易时间异常。
+hit判定理由：根据决策结果，规则未命中（合规/一致），因此 hit=false。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>已严格按照判断逻辑的四个步骤执行，并依据校验规则和决策结果进行判断。所有提取到时间的交易均不在2点至5点之间。</t>
+          <t>所有提取到时间的交易均不在2点至5点的特殊时间段内。</t>
         </is>
       </c>
     </row>
